--- a/相关/测试记录/20180820.xlsx
+++ b/相关/测试记录/20180820.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$186</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296">
   <si>
     <t>序号</t>
   </si>
@@ -445,7 +445,7 @@
     <t>点击登录后 登陆后有错误提示</t>
   </si>
   <si>
-    <t>设置为客户信息是指用户名？添加链接至账户页面？</t>
+    <t>首页√</t>
   </si>
   <si>
     <t>左上角logo应该设置为客户信息需要添加链接</t>
@@ -479,9 +479,6 @@
   </si>
   <si>
     <t>快捷入口下 添加最新公告栏  清关批次等</t>
-  </si>
-  <si>
-    <t>首页√</t>
   </si>
   <si>
     <t>左侧导航栏鼠标移动到 相关导航栏 鼠标样式应该改变</t>
@@ -666,7 +663,7 @@
     <t>筛选栏去掉【送达仓库】       添加   批量打印按键后面的打印面单种类下拉框</t>
   </si>
   <si>
-    <t>需要提供当前交易金额接口</t>
+    <t>需要提供当前代付款的费用总额接口</t>
   </si>
   <si>
     <t>表格最下方添加后方图片内字样及超链接  数字标红后方加$符号   差额标红标粗  支付宝字样做跳转</t>
@@ -871,6 +868,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>【创建时间】【入库时间】改为【入库时间】【提交状态】。 【入库时间】需要显示‘已到库’/‘未到库’包裹的状态以及相应日期不需要具体到时间，</t>
     </r>
     <r>
@@ -969,7 +973,7 @@
     <t>转运的运单就是包裹入库后客户点击【提交运单】新生成的，此运单点击编辑或通过运单号点击进入详情   查看需要显示  合成此运单的包裹内容</t>
   </si>
   <si>
-    <t>112条删掉，需求变更</t>
+    <t>于112条需求变更</t>
   </si>
   <si>
     <t>【来源】的后面添加【运单号】</t>
@@ -1047,9 +1051,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1118,24 +1122,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,15 +1152,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1186,10 +1183,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1201,16 +1212,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,37 +1261,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,37 +1293,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,13 +1323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,85 +1341,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,13 +1383,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,7 +1455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,17 +1487,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,17 +1535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,8 +1549,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1560,26 +1584,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1588,145 +1592,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1779,7 +1783,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3735,11 +3739,11 @@
   <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B188" sqref="B188"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5154,11 +5158,11 @@
       <c r="A73" s="16">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>120</v>
+      <c r="B73" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
         <v>124</v>
@@ -5251,11 +5255,11 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E79">
         <v>8.17</v>
@@ -5266,11 +5270,11 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E80">
         <v>8.17</v>
@@ -5281,11 +5285,11 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E81">
         <v>8.17</v>
@@ -5296,13 +5300,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" t="s">
         <v>140</v>
-      </c>
-      <c r="D82" t="s">
-        <v>141</v>
       </c>
       <c r="E82">
         <v>8.17</v>
@@ -5313,11 +5317,11 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E83">
         <v>8.17</v>
@@ -5328,11 +5332,11 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E84">
         <v>8.17</v>
@@ -5347,7 +5351,7 @@
       </c>
       <c r="C85" s="9"/>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E85">
         <v>8.17</v>
@@ -5358,11 +5362,11 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E86">
         <v>8.17</v>
@@ -5373,11 +5377,11 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E87">
         <v>8.17</v>
@@ -5388,13 +5392,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" t="s">
         <v>149</v>
-      </c>
-      <c r="D88" t="s">
-        <v>150</v>
       </c>
       <c r="E88">
         <v>8.17</v>
@@ -5405,11 +5409,11 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E89">
         <v>8.17</v>
@@ -5424,7 +5428,7 @@
       </c>
       <c r="C90" s="9"/>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E90">
         <v>8.17</v>
@@ -5435,7 +5439,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C91" s="9"/>
       <c r="E91">
@@ -5447,11 +5451,11 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E92">
         <v>8.17</v>
@@ -5462,11 +5466,11 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E93">
         <v>8.17</v>
@@ -5477,13 +5481,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" t="s">
         <v>158</v>
-      </c>
-      <c r="D94" t="s">
-        <v>159</v>
       </c>
       <c r="E94">
         <v>8.17</v>
@@ -5494,11 +5498,11 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E95">
         <v>8.17</v>
@@ -5509,11 +5513,11 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E96">
         <v>8.17</v>
@@ -5524,11 +5528,11 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E97">
         <v>8.17</v>
@@ -5539,11 +5543,11 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E98">
         <v>8.17</v>
@@ -5554,13 +5558,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E99">
         <v>8.17</v>
@@ -5571,11 +5575,11 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E100">
         <v>8.17</v>
@@ -5590,7 +5594,7 @@
       </c>
       <c r="C101" s="5"/>
       <c r="D101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E101">
         <v>8.17</v>
@@ -5601,11 +5605,11 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E102">
         <v>8.17</v>
@@ -5619,10 +5623,10 @@
         <v>23</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" t="s">
         <v>173</v>
-      </c>
-      <c r="D103" t="s">
-        <v>174</v>
       </c>
       <c r="E103">
         <v>8.17</v>
@@ -5633,11 +5637,11 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E104">
         <v>8.17</v>
@@ -5648,11 +5652,11 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E105">
         <v>8.17</v>
@@ -5666,10 +5670,10 @@
         <v>80</v>
       </c>
       <c r="C106" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" t="s">
         <v>177</v>
-      </c>
-      <c r="D106" t="s">
-        <v>178</v>
       </c>
       <c r="E106">
         <v>8.17</v>
@@ -5684,7 +5688,7 @@
       </c>
       <c r="C107" s="9"/>
       <c r="D107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E107">
         <v>8.17</v>
@@ -5695,11 +5699,11 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E108">
         <v>8.17</v>
@@ -5710,13 +5714,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E109">
         <v>8.17</v>
@@ -5727,13 +5731,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E110">
         <v>8.17</v>
@@ -5744,13 +5748,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D111" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E111">
         <v>8.17</v>
@@ -5761,11 +5765,11 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C112" s="21"/>
       <c r="D112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E112">
         <v>8.18</v>
@@ -5776,11 +5780,11 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E113">
         <v>8.18</v>
@@ -5791,11 +5795,11 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E114">
         <v>8.18</v>
@@ -5806,11 +5810,11 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E115">
         <v>8.18</v>
@@ -5821,11 +5825,11 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E116">
         <v>8.18</v>
@@ -5836,13 +5840,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" t="s">
         <v>194</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D117" t="s">
-        <v>195</v>
       </c>
       <c r="E117">
         <v>8.18</v>
@@ -5853,13 +5857,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C118" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D118" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>197</v>
       </c>
       <c r="E118">
         <v>8.18</v>
@@ -5870,13 +5874,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E119">
         <v>8.18</v>
@@ -5887,11 +5891,11 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E120">
         <v>8.18</v>
@@ -5902,11 +5906,11 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E121">
         <v>8.18</v>
@@ -5917,13 +5921,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="D122" s="19" t="s">
         <v>203</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>204</v>
       </c>
       <c r="E122">
         <v>8.18</v>
@@ -5934,11 +5938,11 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E123">
         <v>8.18</v>
@@ -5949,13 +5953,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E124">
         <v>8.18</v>
@@ -5966,11 +5970,11 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E125">
         <v>8.18</v>
@@ -5981,11 +5985,11 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E126">
         <v>8.18</v>
@@ -5996,11 +6000,11 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E127">
         <v>8.18</v>
@@ -6011,11 +6015,11 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E128">
         <v>8.18</v>
@@ -6026,11 +6030,11 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E129">
         <v>8.18</v>
@@ -6041,13 +6045,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C130" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D130" t="s">
         <v>213</v>
-      </c>
-      <c r="D130" t="s">
-        <v>214</v>
       </c>
       <c r="E130">
         <v>8.18</v>
@@ -6058,11 +6062,11 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E131">
         <v>8.18</v>
@@ -6073,11 +6077,11 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E132">
         <v>8.18</v>
@@ -6088,13 +6092,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D133" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E133">
         <v>8.18</v>
@@ -6105,11 +6109,11 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E134">
         <v>8.18</v>
@@ -6120,13 +6124,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D135" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E135">
         <v>8.18</v>
@@ -6137,11 +6141,11 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E136">
         <v>8.18</v>
@@ -6152,11 +6156,11 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E137">
         <v>8.18</v>
@@ -6167,11 +6171,11 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E138">
         <v>8.18</v>
@@ -6182,11 +6186,11 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E139">
         <v>8.18</v>
@@ -6197,13 +6201,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="D140" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="D140" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="E140">
         <v>8.18</v>
@@ -6214,13 +6218,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D141" t="s">
         <v>225</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D141" t="s">
-        <v>226</v>
       </c>
       <c r="E141">
         <v>8.18</v>
@@ -6231,11 +6235,11 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E142">
         <v>8.18</v>
@@ -6246,13 +6250,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C143" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="D143" t="s">
         <v>229</v>
-      </c>
-      <c r="D143" t="s">
-        <v>230</v>
       </c>
       <c r="E143">
         <v>8.18</v>
@@ -6263,11 +6267,11 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E144">
         <v>8.18</v>
@@ -6278,11 +6282,11 @@
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E145">
         <v>8.18</v>
@@ -6293,11 +6297,11 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E146">
         <v>8.18</v>
@@ -6308,16 +6312,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C147" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D147" t="s">
         <v>235</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>236</v>
-      </c>
-      <c r="E147" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -6325,14 +6329,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C148" s="21"/>
       <c r="D148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E148" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6340,16 +6344,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C149" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="C149" s="24" t="s">
+      <c r="D149" t="s">
         <v>240</v>
       </c>
-      <c r="D149" t="s">
-        <v>241</v>
-      </c>
       <c r="E149" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6357,14 +6361,14 @@
         <v>149</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C150" s="21"/>
       <c r="D150" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E150" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6372,14 +6376,14 @@
         <v>150</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C151" s="21"/>
       <c r="D151" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E151" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" ht="27" spans="1:5">
@@ -6387,14 +6391,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C152" s="21"/>
       <c r="D152" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="153" ht="27" spans="1:5">
@@ -6402,14 +6406,14 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C153" s="21"/>
       <c r="D153" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E153" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6417,14 +6421,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C154" s="21"/>
       <c r="D154" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E154" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6432,14 +6436,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C155" s="21"/>
       <c r="D155" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E155" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6447,14 +6451,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C156" s="21"/>
       <c r="D156" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E156" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6462,14 +6466,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C157" s="21"/>
       <c r="D157" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E157" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" ht="27" spans="1:5">
@@ -6477,14 +6481,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C158" s="21"/>
       <c r="D158" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E158" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6492,14 +6496,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C159" s="21"/>
       <c r="D159" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E159" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6507,14 +6511,14 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C160" s="21"/>
       <c r="D160" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E160" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6522,14 +6526,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C161" s="21"/>
       <c r="D161" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E161" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6537,11 +6541,11 @@
         <v>161</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C162" s="21"/>
       <c r="D162" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6549,16 +6553,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C163" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D163" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E163" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6566,13 +6570,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C164" s="25" t="s">
         <v>130</v>
       </c>
       <c r="E164" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="165" ht="27" spans="1:5">
@@ -6580,14 +6584,14 @@
         <v>164</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C165" s="21"/>
       <c r="D165" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E165" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="166" ht="67.5" spans="1:5">
@@ -6595,16 +6599,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C166" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="D166" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="D166" s="26" t="s">
-        <v>264</v>
-      </c>
       <c r="E166" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6612,14 +6616,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C167" s="21"/>
       <c r="D167" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E167" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6627,16 +6631,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C168" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D168" t="s">
         <v>240</v>
       </c>
-      <c r="D168" t="s">
-        <v>241</v>
-      </c>
       <c r="E168" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6644,16 +6648,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C169" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C169" s="24" t="s">
+      <c r="D169" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="D169" s="23" t="s">
-        <v>269</v>
-      </c>
       <c r="E169" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="170" ht="27" spans="1:5">
@@ -6661,16 +6665,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C170" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C170" s="24" t="s">
+      <c r="D170" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D170" s="19" t="s">
-        <v>272</v>
-      </c>
       <c r="E170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6678,16 +6682,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D171" t="s">
         <v>273</v>
       </c>
-      <c r="D171" t="s">
-        <v>274</v>
-      </c>
       <c r="E171" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6695,16 +6699,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C172" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="C172" s="23" t="s">
+      <c r="D172" t="s">
         <v>276</v>
       </c>
-      <c r="D172" t="s">
-        <v>277</v>
-      </c>
       <c r="E172" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6712,14 +6716,14 @@
         <v>172</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C173" s="21"/>
       <c r="D173" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6727,16 +6731,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C174" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="D174" t="s">
         <v>280</v>
       </c>
-      <c r="D174" t="s">
-        <v>281</v>
-      </c>
       <c r="E174" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6744,14 +6748,14 @@
         <v>174</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C175" s="21"/>
       <c r="D175" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E175" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6759,14 +6763,14 @@
         <v>175</v>
       </c>
       <c r="B176" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C176" s="21"/>
       <c r="D176" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E176" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6774,11 +6778,11 @@
         <v>176</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C177" s="21"/>
       <c r="E177" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -6786,10 +6790,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C178" s="24" t="s">
         <v>284</v>
-      </c>
-      <c r="C178" s="24" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -6797,10 +6801,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C179" s="24" t="s">
         <v>286</v>
-      </c>
-      <c r="C179" s="24" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -6808,10 +6812,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C180" s="24" t="s">
         <v>288</v>
-      </c>
-      <c r="C180" s="24" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -6819,10 +6823,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C181" s="24" t="s">
         <v>290</v>
-      </c>
-      <c r="C181" s="24" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -6830,10 +6834,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -6841,10 +6845,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C183" s="24" t="s">
         <v>293</v>
-      </c>
-      <c r="C183" s="24" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -6852,7 +6856,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C184" s="25" t="s">
         <v>61</v>
@@ -6863,7 +6867,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C185" s="25" t="s">
         <v>61</v>
@@ -6874,14 +6878,14 @@
         <v>185</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C186" s="25" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H179">
+  <autoFilter ref="A1:H186">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/相关/测试记录/20180820.xlsx
+++ b/相关/测试记录/20180820.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
   <si>
     <t>序号</t>
   </si>
@@ -1044,16 +1044,82 @@
   <si>
     <t>清关批次</t>
   </si>
+  <si>
+    <t>左上角logo应该设置为客户信息需要添加链接  无法点击 鼠标移动过去 也没有任何改变</t>
+  </si>
+  <si>
+    <t>8.21日</t>
+  </si>
+  <si>
+    <t>就是点击已到库后进行提交运单操作      仓库字段没有填写导致后台无显示</t>
+  </si>
+  <si>
+    <t>二次扩展功能</t>
+  </si>
+  <si>
+    <t>添加搜索栏  【包裹追踪号】下拉框【处理状态】下拉框      查询  全部  按键</t>
+  </si>
+  <si>
+    <t>退货包裹处理</t>
+  </si>
+  <si>
+    <t>表格内显示内容依次【包裹追踪号】【退货价格】【退货地址】【备注】【退货时间】【处理状态】【处理备注】；【处理状态】栏将‘已处理/未处理跟处理日期合并显示’例如：       可以不显示时间只显示日期；操作栏添加按钮【详情】【取消退货】，处理状态为‘已处理’的显示【详情】  处理状态为‘未处理’的显示【取消退货】  点击【取消退货】则此退货包裹返回已入库</t>
+  </si>
+  <si>
+    <t>是否处理、退货金额栏宽度缩窄</t>
+  </si>
+  <si>
+    <t>标红栏顺序【包裹预报】【未到库】【已到库】【所有包裹】【退货包裹列表】</t>
+  </si>
+  <si>
+    <t>包裹预报</t>
+  </si>
+  <si>
+    <t>需要从后台找原因</t>
+  </si>
+  <si>
+    <t>所有内容填写完 点击提交后  后续包裹查看  包裹编辑下 都没有 我填写的【备注】里面的内容</t>
+  </si>
+  <si>
+    <t>后台报错</t>
+  </si>
+  <si>
+    <t>点击批量删除后提示错误</t>
+  </si>
+  <si>
+    <t>点击完创建后  需要将页面置顶</t>
+  </si>
+  <si>
+    <t>运单-全部运单下点击详情√</t>
+  </si>
+  <si>
+    <t>时间栏格式没有改</t>
+  </si>
+  <si>
+    <t>重量栏没有重量单位磅</t>
+  </si>
+  <si>
+    <t>税金、费用  钱数标红 需要加美金符号</t>
+  </si>
+  <si>
+    <t>运单-全部运单√</t>
+  </si>
+  <si>
+    <t>现在全部运单  身份证信息栏没有显示</t>
+  </si>
+  <si>
+    <t>在线下单提交成功后，应带有能够查询运单详情与运单打印的返回值</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1122,90 +1188,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1222,6 +1206,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1237,6 +1273,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1244,8 +1304,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,14 +1327,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1293,25 +1359,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,12 +1407,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1347,19 +1419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,49 +1443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,19 +1479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,13 +1515,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,7 +1557,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1507,30 +1627,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1554,36 +1650,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1592,10 +1658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1604,137 +1670,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1815,6 +1881,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3463,6 +3532,216 @@
         <a:xfrm>
           <a:off x="9164320" y="32918400"/>
           <a:ext cx="730250" cy="187960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4803140</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5484495</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10165715" y="34470975"/>
+          <a:ext cx="681355" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3667125</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4029075</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="35318700"/>
+          <a:ext cx="361950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6975475</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7839075</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12338050" y="36031805"/>
+          <a:ext cx="863600" cy="134620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7179945</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7848600</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12542520" y="36347400"/>
+          <a:ext cx="668655" cy="191135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6728460</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7753350</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12091035" y="37233225"/>
+          <a:ext cx="1024890" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3736,14 +4015,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C155" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomRight" activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6884,6 +7163,220 @@
         <v>21</v>
       </c>
     </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D187" t="s">
+        <v>296</v>
+      </c>
+      <c r="E187" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D188" t="s">
+        <v>298</v>
+      </c>
+      <c r="E188" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C189" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D189" t="s">
+        <v>300</v>
+      </c>
+      <c r="E189" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="190" ht="54" spans="1:5">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D190" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E190" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C191" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D191" t="s">
+        <v>303</v>
+      </c>
+      <c r="E191" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="27">
+        <v>191</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D192" t="s">
+        <v>304</v>
+      </c>
+      <c r="E192" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D193" t="s">
+        <v>307</v>
+      </c>
+      <c r="E193" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D194" t="s">
+        <v>309</v>
+      </c>
+      <c r="E194" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C195" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D195" t="s">
+        <v>310</v>
+      </c>
+      <c r="E195" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C196" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D196" t="s">
+        <v>312</v>
+      </c>
+      <c r="E196" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D197" t="s">
+        <v>313</v>
+      </c>
+      <c r="E197" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D198" t="s">
+        <v>314</v>
+      </c>
+      <c r="E198" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="D199" t="s">
+        <v>316</v>
+      </c>
+      <c r="E199" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H186">
     <extLst/>

--- a/相关/测试记录/20180820.xlsx
+++ b/相关/测试记录/20180820.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$200</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1116,9 +1116,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1188,6 +1188,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1196,55 +1211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,6 +1232,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1273,41 +1280,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1325,8 +1300,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1359,37 +1359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,7 +1383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,7 +1407,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,13 +1491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,55 +1503,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,36 +1543,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1555,9 +1555,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1572,30 +1592,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1633,20 +1629,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,10 +1658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1670,133 +1670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4018,11 +4018,11 @@
   <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C179" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C204" sqref="C204"/>
+      <selection pane="bottomRight" activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7229,8 +7229,8 @@
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="25" t="s">
-        <v>258</v>
+      <c r="B191" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="C191" s="25" t="s">
         <v>299</v>
@@ -7378,7 +7378,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H186">
+  <autoFilter ref="A1:H200">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/相关/测试记录/20180820.xlsx
+++ b/相关/测试记录/20180820.xlsx
@@ -792,7 +792,7 @@
     <t>如果此运单为转运下单生成的运单号【物品】栏需要显示  包裹号以及物品信息</t>
   </si>
   <si>
-    <t>包裹-未入库包裹-编辑</t>
+    <t>包裹-未入库包裹-编辑√</t>
   </si>
   <si>
     <t>包裹追踪号修改之后后台报错</t>
@@ -952,7 +952,7 @@
     <t>重量标红 标粗</t>
   </si>
   <si>
-    <t>包裹-全部-编辑</t>
+    <t>包裹-全部-编辑√</t>
   </si>
   <si>
     <t>包裹</t>
@@ -1072,10 +1072,10 @@
     <t>标红栏顺序【包裹预报】【未到库】【已到库】【所有包裹】【退货包裹列表】</t>
   </si>
   <si>
-    <t>包裹预报</t>
-  </si>
-  <si>
-    <t>需要从后台找原因</t>
+    <t>包裹预报√</t>
+  </si>
+  <si>
+    <t>功能性bug，已修复</t>
   </si>
   <si>
     <t>所有内容填写完 点击提交后  后续包裹查看  包裹编辑下 都没有 我填写的【备注】里面的内容</t>
@@ -1116,10 +1116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1189,15 +1189,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1225,15 +1231,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1244,6 +1252,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1263,22 +1309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1286,39 +1316,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1332,12 +1332,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6AAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1359,25 +1383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,7 +1407,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,7 +1467,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,19 +1503,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,85 +1551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,13 +1563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,29 +1579,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1593,6 +1597,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1630,8 +1643,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,10 +1682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1670,137 +1694,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1822,22 +1846,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1852,16 +1903,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1938,6 +1989,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00D6AAFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4018,11 +4074,11 @@
   <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C167" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B192" sqref="B192"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4120,7 +4176,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="8"/>
@@ -4141,7 +4197,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="8"/>
@@ -4156,7 +4212,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -4179,7 +4235,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -4202,7 +4258,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="8"/>
@@ -4223,7 +4279,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="8"/>
@@ -4244,7 +4300,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -4267,10 +4323,10 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="13"/>
       <c r="D12" t="s">
         <v>29</v>
       </c>
@@ -4288,7 +4344,7 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5"/>
@@ -4309,10 +4365,10 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="15"/>
       <c r="D14" t="s">
         <v>33</v>
       </c>
@@ -4330,7 +4386,7 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="8"/>
@@ -4351,7 +4407,7 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -4374,7 +4430,7 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -4397,10 +4453,10 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="15"/>
       <c r="D18" t="s">
         <v>42</v>
       </c>
@@ -4418,10 +4474,10 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="15"/>
       <c r="D19" t="s">
         <v>44</v>
       </c>
@@ -4439,10 +4495,10 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="15"/>
       <c r="D20" t="s">
         <v>45</v>
       </c>
@@ -4460,10 +4516,10 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="15"/>
       <c r="D21" t="s">
         <v>46</v>
       </c>
@@ -4481,7 +4537,7 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="8"/>
@@ -4502,7 +4558,7 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4525,10 +4581,10 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="15"/>
       <c r="D24" t="s">
         <v>44</v>
       </c>
@@ -4546,10 +4602,10 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="15"/>
       <c r="D25" t="s">
         <v>46</v>
       </c>
@@ -4590,10 +4646,10 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="10"/>
       <c r="D27" t="s">
         <v>53</v>
       </c>
@@ -4611,10 +4667,10 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="15"/>
       <c r="D28" t="s">
         <v>54</v>
       </c>
@@ -4635,7 +4691,7 @@
       <c r="B29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="15"/>
       <c r="D29" t="s">
         <v>55</v>
       </c>
@@ -4653,7 +4709,7 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -4676,7 +4732,7 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -4693,10 +4749,10 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="15"/>
       <c r="D32" t="s">
         <v>59</v>
       </c>
@@ -4728,10 +4784,10 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="13"/>
       <c r="D34" t="s">
         <v>63</v>
       </c>
@@ -4749,10 +4805,10 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="13"/>
       <c r="D35" t="s">
         <v>64</v>
       </c>
@@ -4770,10 +4826,10 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D36" t="s">
@@ -4793,10 +4849,10 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="13"/>
       <c r="D37" t="s">
         <v>68</v>
       </c>
@@ -4814,7 +4870,7 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -4837,10 +4893,10 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="13"/>
       <c r="D39" t="s">
         <v>71</v>
       </c>
@@ -4858,10 +4914,10 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="13"/>
       <c r="D40" t="s">
         <v>72</v>
       </c>
@@ -4879,10 +4935,10 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="13"/>
       <c r="D41" t="s">
         <v>74</v>
       </c>
@@ -4900,10 +4956,10 @@
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="13"/>
       <c r="D42" t="s">
         <v>75</v>
       </c>
@@ -4921,10 +4977,10 @@
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="13"/>
       <c r="D43" t="s">
         <v>77</v>
       </c>
@@ -4942,10 +4998,10 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="13"/>
       <c r="D44" t="s">
         <v>78</v>
       </c>
@@ -4963,10 +5019,10 @@
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="13"/>
       <c r="D45" t="s">
         <v>79</v>
       </c>
@@ -4984,7 +5040,7 @@
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -5007,10 +5063,10 @@
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="13"/>
       <c r="D47" t="s">
         <v>82</v>
       </c>
@@ -5028,10 +5084,10 @@
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="13"/>
       <c r="D48" t="s">
         <v>83</v>
       </c>
@@ -5049,10 +5105,10 @@
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="13"/>
       <c r="D49" t="s">
         <v>84</v>
       </c>
@@ -5070,10 +5126,10 @@
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="13"/>
       <c r="D50" t="s">
         <v>85</v>
       </c>
@@ -5091,10 +5147,10 @@
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="13"/>
       <c r="D51" t="s">
         <v>86</v>
       </c>
@@ -5129,11 +5185,11 @@
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="11" t="s">
+      <c r="C53" s="13"/>
+      <c r="D53" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -5144,10 +5200,10 @@
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="9"/>
+      <c r="C54" s="13"/>
       <c r="D54" t="s">
         <v>91</v>
       </c>
@@ -5159,10 +5215,10 @@
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="13"/>
       <c r="D55" t="s">
         <v>93</v>
       </c>
@@ -5174,10 +5230,10 @@
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="9"/>
+      <c r="C56" s="13"/>
       <c r="D56" t="s">
         <v>95</v>
       </c>
@@ -5189,10 +5245,10 @@
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="13"/>
       <c r="D57" t="s">
         <v>97</v>
       </c>
@@ -5204,10 +5260,10 @@
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="13"/>
       <c r="D58" t="s">
         <v>98</v>
       </c>
@@ -5219,7 +5275,7 @@
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -5236,10 +5292,10 @@
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="13"/>
       <c r="D60" t="s">
         <v>88</v>
       </c>
@@ -5251,10 +5307,10 @@
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="13"/>
       <c r="D61" t="s">
         <v>102</v>
       </c>
@@ -5266,7 +5322,7 @@
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -5283,10 +5339,10 @@
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="13"/>
       <c r="D63" t="s">
         <v>105</v>
       </c>
@@ -5298,10 +5354,10 @@
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="9"/>
+      <c r="C64" s="13"/>
       <c r="D64" t="s">
         <v>106</v>
       </c>
@@ -5313,10 +5369,10 @@
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="13"/>
       <c r="D65" t="s">
         <v>108</v>
       </c>
@@ -5325,13 +5381,13 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="12">
+      <c r="A66" s="21">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="13"/>
       <c r="D66" t="s">
         <v>110</v>
       </c>
@@ -5343,10 +5399,10 @@
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="13"/>
       <c r="D67" t="s">
         <v>112</v>
       </c>
@@ -5358,10 +5414,10 @@
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="9"/>
+      <c r="C68" s="13"/>
       <c r="D68" t="s">
         <v>113</v>
       </c>
@@ -5373,10 +5429,10 @@
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="13"/>
       <c r="D69" t="s">
         <v>115</v>
       </c>
@@ -5388,10 +5444,10 @@
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="9"/>
+      <c r="C70" s="13"/>
       <c r="D70" t="s">
         <v>116</v>
       </c>
@@ -5417,27 +5473,27 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="13">
+      <c r="A72" s="22">
         <v>71</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="24">
         <v>8.17</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="16">
+      <c r="A73" s="25">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -5454,10 +5510,10 @@
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="9"/>
+      <c r="C74" s="13"/>
       <c r="D74" t="s">
         <v>126</v>
       </c>
@@ -5469,10 +5525,10 @@
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="9"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="6" t="s">
         <v>128</v>
       </c>
@@ -5498,13 +5554,13 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="12">
+      <c r="A77" s="21">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="6" t="s">
         <v>132</v>
       </c>
@@ -5513,10 +5569,10 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="18">
+      <c r="A78" s="27">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -5530,13 +5586,13 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="12">
+      <c r="A79" s="21">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="9"/>
+      <c r="C79" s="13"/>
       <c r="D79" t="s">
         <v>135</v>
       </c>
@@ -5548,10 +5604,10 @@
       <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="9"/>
+      <c r="C80" s="13"/>
       <c r="D80" t="s">
         <v>137</v>
       </c>
@@ -5563,11 +5619,11 @@
       <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="19" t="s">
+      <c r="C81" s="13"/>
+      <c r="D81" s="28" t="s">
         <v>138</v>
       </c>
       <c r="E81">
@@ -5595,11 +5651,11 @@
       <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="20" t="s">
+      <c r="C83" s="13"/>
+      <c r="D83" s="29" t="s">
         <v>141</v>
       </c>
       <c r="E83">
@@ -5610,10 +5666,10 @@
       <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="13"/>
       <c r="D84" t="s">
         <v>142</v>
       </c>
@@ -5625,10 +5681,10 @@
       <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="9"/>
+      <c r="C85" s="13"/>
       <c r="D85" t="s">
         <v>143</v>
       </c>
@@ -5640,10 +5696,10 @@
       <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="13"/>
       <c r="D86" t="s">
         <v>145</v>
       </c>
@@ -5655,10 +5711,10 @@
       <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="13"/>
       <c r="D87" t="s">
         <v>146</v>
       </c>
@@ -5687,10 +5743,10 @@
       <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="9"/>
+      <c r="C89" s="13"/>
       <c r="D89" t="s">
         <v>146</v>
       </c>
@@ -5702,10 +5758,10 @@
       <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="9"/>
+      <c r="C90" s="13"/>
       <c r="D90" t="s">
         <v>151</v>
       </c>
@@ -5717,10 +5773,10 @@
       <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="13"/>
       <c r="E91">
         <v>8.17</v>
       </c>
@@ -5729,10 +5785,10 @@
       <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="13"/>
       <c r="D92" t="s">
         <v>154</v>
       </c>
@@ -5744,10 +5800,10 @@
       <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C93" s="9"/>
+      <c r="C93" s="13"/>
       <c r="D93" t="s">
         <v>155</v>
       </c>
@@ -5759,7 +5815,7 @@
       <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="17" t="s">
         <v>156</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -5776,10 +5832,10 @@
       <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="13"/>
       <c r="D95" t="s">
         <v>160</v>
       </c>
@@ -5791,10 +5847,10 @@
       <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="13"/>
       <c r="D96" t="s">
         <v>162</v>
       </c>
@@ -5806,10 +5862,10 @@
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="13"/>
       <c r="D97" t="s">
         <v>164</v>
       </c>
@@ -5821,10 +5877,10 @@
       <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="13"/>
       <c r="D98" t="s">
         <v>165</v>
       </c>
@@ -5842,7 +5898,7 @@
       <c r="C99" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="28" t="s">
         <v>167</v>
       </c>
       <c r="E99">
@@ -5853,10 +5909,10 @@
       <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C100" s="9"/>
+      <c r="C100" s="13"/>
       <c r="D100" t="s">
         <v>168</v>
       </c>
@@ -5868,7 +5924,7 @@
       <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C101" s="5"/>
@@ -5883,10 +5939,10 @@
       <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="9"/>
+      <c r="C102" s="13"/>
       <c r="D102" t="s">
         <v>171</v>
       </c>
@@ -5915,11 +5971,11 @@
       <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="19" t="s">
+      <c r="C104" s="13"/>
+      <c r="D104" s="28" t="s">
         <v>174</v>
       </c>
       <c r="E104">
@@ -5930,10 +5986,10 @@
       <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C105" s="9"/>
+      <c r="C105" s="13"/>
       <c r="D105" t="s">
         <v>175</v>
       </c>
@@ -5962,10 +6018,10 @@
       <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C107" s="9"/>
+      <c r="C107" s="13"/>
       <c r="D107" t="s">
         <v>178</v>
       </c>
@@ -5977,10 +6033,10 @@
       <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C108" s="9"/>
+      <c r="C108" s="13"/>
       <c r="D108" t="s">
         <v>180</v>
       </c>
@@ -5992,7 +6048,7 @@
       <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -6009,7 +6065,7 @@
       <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C110" s="8" t="s">
@@ -6043,10 +6099,10 @@
       <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C112" s="21"/>
+      <c r="C112" s="30"/>
       <c r="D112" t="s">
         <v>186</v>
       </c>
@@ -6058,7 +6114,7 @@
       <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C113" s="8"/>
@@ -6073,10 +6129,10 @@
       <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="9"/>
+      <c r="C114" s="13"/>
       <c r="D114" t="s">
         <v>189</v>
       </c>
@@ -6088,10 +6144,10 @@
       <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C115" s="9"/>
+      <c r="C115" s="13"/>
       <c r="D115" t="s">
         <v>191</v>
       </c>
@@ -6103,10 +6159,10 @@
       <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C116" s="9"/>
+      <c r="C116" s="13"/>
       <c r="D116" t="s">
         <v>192</v>
       </c>
@@ -6141,7 +6197,7 @@
       <c r="C118" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D118" s="30" t="s">
         <v>196</v>
       </c>
       <c r="E118">
@@ -6169,10 +6225,10 @@
       <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C120" s="9"/>
+      <c r="C120" s="13"/>
       <c r="D120" t="s">
         <v>200</v>
       </c>
@@ -6184,10 +6240,10 @@
       <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="13"/>
       <c r="D121" t="s">
         <v>192</v>
       </c>
@@ -6199,13 +6255,13 @@
       <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="17" t="s">
         <v>201</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="28" t="s">
         <v>203</v>
       </c>
       <c r="E122">
@@ -6216,7 +6272,7 @@
       <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="9" t="s">
         <v>204</v>
       </c>
       <c r="C123" s="5"/>
@@ -6248,10 +6304,10 @@
       <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C125" s="9"/>
+      <c r="C125" s="13"/>
       <c r="D125" t="s">
         <v>206</v>
       </c>
@@ -6263,10 +6319,10 @@
       <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C126" s="9"/>
+      <c r="C126" s="13"/>
       <c r="D126" t="s">
         <v>208</v>
       </c>
@@ -6278,10 +6334,10 @@
       <c r="A127" s="4">
         <v>126</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C127" s="9"/>
+      <c r="C127" s="13"/>
       <c r="D127" t="s">
         <v>209</v>
       </c>
@@ -6293,10 +6349,10 @@
       <c r="A128" s="4">
         <v>127</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C128" s="9"/>
+      <c r="C128" s="13"/>
       <c r="D128" t="s">
         <v>210</v>
       </c>
@@ -6308,10 +6364,10 @@
       <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C129" s="9"/>
+      <c r="C129" s="13"/>
       <c r="D129" t="s">
         <v>211</v>
       </c>
@@ -6323,10 +6379,10 @@
       <c r="A130" s="4">
         <v>129</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D130" t="s">
@@ -6340,10 +6396,10 @@
       <c r="A131" s="4">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C131" s="9"/>
+      <c r="C131" s="13"/>
       <c r="D131" t="s">
         <v>214</v>
       </c>
@@ -6355,10 +6411,10 @@
       <c r="A132" s="4">
         <v>131</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C132" s="9"/>
+      <c r="C132" s="13"/>
       <c r="D132" t="s">
         <v>215</v>
       </c>
@@ -6387,10 +6443,10 @@
       <c r="A134" s="4">
         <v>133</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C134" s="9"/>
+      <c r="C134" s="13"/>
       <c r="D134" t="s">
         <v>208</v>
       </c>
@@ -6419,10 +6475,10 @@
       <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C136" s="9"/>
+      <c r="C136" s="13"/>
       <c r="D136" t="s">
         <v>211</v>
       </c>
@@ -6434,10 +6490,10 @@
       <c r="A137" s="4">
         <v>136</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C137" s="9"/>
+      <c r="C137" s="13"/>
       <c r="D137" t="s">
         <v>210</v>
       </c>
@@ -6449,10 +6505,10 @@
       <c r="A138" s="4">
         <v>137</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C138" s="9"/>
+      <c r="C138" s="13"/>
       <c r="D138" t="s">
         <v>220</v>
       </c>
@@ -6464,10 +6520,10 @@
       <c r="A139" s="4">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C139" s="9"/>
+      <c r="C139" s="13"/>
       <c r="D139" t="s">
         <v>213</v>
       </c>
@@ -6485,7 +6541,7 @@
       <c r="C140" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D140" s="22" t="s">
+      <c r="D140" s="31" t="s">
         <v>223</v>
       </c>
       <c r="E140">
@@ -6496,7 +6552,7 @@
       <c r="A141" s="4">
         <v>140</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="17" t="s">
         <v>224</v>
       </c>
       <c r="C141" s="5" t="s">
@@ -6516,7 +6572,7 @@
       <c r="B142" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C142" s="9"/>
+      <c r="C142" s="13"/>
       <c r="D142" t="s">
         <v>226</v>
       </c>
@@ -6528,10 +6584,10 @@
       <c r="A143" s="4">
         <v>142</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="10" t="s">
         <v>228</v>
       </c>
       <c r="D143" t="s">
@@ -6545,10 +6601,10 @@
       <c r="A144" s="4">
         <v>143</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C144" s="9"/>
+      <c r="C144" s="13"/>
       <c r="D144" t="s">
         <v>231</v>
       </c>
@@ -6560,10 +6616,10 @@
       <c r="A145" s="4">
         <v>144</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C145" s="9"/>
+      <c r="C145" s="13"/>
       <c r="D145" t="s">
         <v>211</v>
       </c>
@@ -6575,10 +6631,10 @@
       <c r="A146" s="4">
         <v>145</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="C146" s="9"/>
+      <c r="C146" s="13"/>
       <c r="D146" t="s">
         <v>233</v>
       </c>
@@ -6590,10 +6646,10 @@
       <c r="A147" s="4">
         <v>146</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C147" s="32" t="s">
         <v>234</v>
       </c>
       <c r="D147" t="s">
@@ -6607,10 +6663,10 @@
       <c r="A148" s="4">
         <v>147</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C148" s="21"/>
+      <c r="C148" s="30"/>
       <c r="D148" t="s">
         <v>237</v>
       </c>
@@ -6622,10 +6678,10 @@
       <c r="A149" s="4">
         <v>148</v>
       </c>
-      <c r="B149" s="24" t="s">
+      <c r="B149" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="C149" s="24" t="s">
+      <c r="C149" s="33" t="s">
         <v>239</v>
       </c>
       <c r="D149" t="s">
@@ -6639,10 +6695,10 @@
       <c r="A150" s="4">
         <v>149</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C150" s="21"/>
+      <c r="C150" s="30"/>
       <c r="D150" t="s">
         <v>241</v>
       </c>
@@ -6654,10 +6710,10 @@
       <c r="A151" s="4">
         <v>150</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="B151" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C151" s="21"/>
+      <c r="C151" s="30"/>
       <c r="D151" t="s">
         <v>243</v>
       </c>
@@ -6669,11 +6725,11 @@
       <c r="A152" s="4">
         <v>151</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C152" s="21"/>
-      <c r="D152" s="19" t="s">
+      <c r="C152" s="30"/>
+      <c r="D152" s="28" t="s">
         <v>244</v>
       </c>
       <c r="E152" t="s">
@@ -6684,11 +6740,11 @@
       <c r="A153" s="4">
         <v>152</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C153" s="21"/>
-      <c r="D153" s="19" t="s">
+      <c r="C153" s="30"/>
+      <c r="D153" s="28" t="s">
         <v>246</v>
       </c>
       <c r="E153" t="s">
@@ -6699,11 +6755,11 @@
       <c r="A154" s="4">
         <v>153</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C154" s="21"/>
-      <c r="D154" s="19" t="s">
+      <c r="C154" s="30"/>
+      <c r="D154" s="28" t="s">
         <v>247</v>
       </c>
       <c r="E154" t="s">
@@ -6714,11 +6770,11 @@
       <c r="A155" s="4">
         <v>154</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C155" s="21"/>
-      <c r="D155" s="19" t="s">
+      <c r="C155" s="30"/>
+      <c r="D155" s="28" t="s">
         <v>248</v>
       </c>
       <c r="E155" t="s">
@@ -6729,11 +6785,11 @@
       <c r="A156" s="4">
         <v>155</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C156" s="21"/>
-      <c r="D156" s="19" t="s">
+      <c r="C156" s="30"/>
+      <c r="D156" s="28" t="s">
         <v>249</v>
       </c>
       <c r="E156" t="s">
@@ -6744,10 +6800,10 @@
       <c r="A157" s="4">
         <v>156</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C157" s="21"/>
+      <c r="C157" s="30"/>
       <c r="D157" t="s">
         <v>250</v>
       </c>
@@ -6759,11 +6815,11 @@
       <c r="A158" s="4">
         <v>157</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C158" s="21"/>
-      <c r="D158" s="19" t="s">
+      <c r="C158" s="30"/>
+      <c r="D158" s="28" t="s">
         <v>251</v>
       </c>
       <c r="E158" t="s">
@@ -6774,10 +6830,10 @@
       <c r="A159" s="4">
         <v>158</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C159" s="21"/>
+      <c r="C159" s="30"/>
       <c r="D159" t="s">
         <v>252</v>
       </c>
@@ -6789,10 +6845,10 @@
       <c r="A160" s="4">
         <v>159</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="21"/>
+      <c r="C160" s="30"/>
       <c r="D160" t="s">
         <v>253</v>
       </c>
@@ -6804,10 +6860,10 @@
       <c r="A161" s="4">
         <v>160</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B161" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C161" s="21"/>
+      <c r="C161" s="30"/>
       <c r="D161" t="s">
         <v>255</v>
       </c>
@@ -6819,10 +6875,10 @@
       <c r="A162" s="4">
         <v>161</v>
       </c>
-      <c r="B162" s="23" t="s">
+      <c r="B162" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C162" s="21"/>
+      <c r="C162" s="30"/>
       <c r="D162" t="s">
         <v>256</v>
       </c>
@@ -6831,10 +6887,10 @@
       <c r="A163" s="4">
         <v>162</v>
       </c>
-      <c r="B163" s="23" t="s">
+      <c r="B163" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C163" s="25" t="s">
+      <c r="C163" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D163" t="s">
@@ -6848,10 +6904,10 @@
       <c r="A164" s="4">
         <v>163</v>
       </c>
-      <c r="B164" s="25" t="s">
+      <c r="B164" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="C164" s="25" t="s">
+      <c r="C164" s="34" t="s">
         <v>130</v>
       </c>
       <c r="E164" t="s">
@@ -6862,11 +6918,11 @@
       <c r="A165" s="4">
         <v>164</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="B165" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C165" s="21"/>
-      <c r="D165" s="19" t="s">
+      <c r="C165" s="30"/>
+      <c r="D165" s="28" t="s">
         <v>260</v>
       </c>
       <c r="E165" t="s">
@@ -6877,13 +6933,13 @@
       <c r="A166" s="4">
         <v>165</v>
       </c>
-      <c r="B166" s="23" t="s">
+      <c r="B166" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="C166" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="D166" s="26" t="s">
+      <c r="D166" s="35" t="s">
         <v>263</v>
       </c>
       <c r="E166" t="s">
@@ -6894,10 +6950,10 @@
       <c r="A167" s="4">
         <v>166</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C167" s="21"/>
+      <c r="C167" s="30"/>
       <c r="D167" t="s">
         <v>264</v>
       </c>
@@ -6909,10 +6965,10 @@
       <c r="A168" s="4">
         <v>167</v>
       </c>
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C168" s="24" t="s">
+      <c r="C168" s="33" t="s">
         <v>239</v>
       </c>
       <c r="D168" t="s">
@@ -6926,13 +6982,13 @@
       <c r="A169" s="4">
         <v>168</v>
       </c>
-      <c r="B169" s="24" t="s">
+      <c r="B169" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="C169" s="24" t="s">
+      <c r="C169" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D169" s="23" t="s">
+      <c r="D169" s="32" t="s">
         <v>268</v>
       </c>
       <c r="E169" t="s">
@@ -6943,13 +6999,13 @@
       <c r="A170" s="4">
         <v>169</v>
       </c>
-      <c r="B170" s="24" t="s">
+      <c r="B170" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C170" s="24" t="s">
+      <c r="C170" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="D170" s="19" t="s">
+      <c r="D170" s="28" t="s">
         <v>271</v>
       </c>
       <c r="E170" t="s">
@@ -6960,10 +7016,10 @@
       <c r="A171" s="4">
         <v>170</v>
       </c>
-      <c r="B171" s="23" t="s">
+      <c r="B171" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="34" t="s">
         <v>272</v>
       </c>
       <c r="D171" t="s">
@@ -6977,10 +7033,10 @@
       <c r="A172" s="4">
         <v>171</v>
       </c>
-      <c r="B172" s="23" t="s">
+      <c r="B172" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C172" s="23" t="s">
+      <c r="C172" s="32" t="s">
         <v>275</v>
       </c>
       <c r="D172" t="s">
@@ -6994,10 +7050,10 @@
       <c r="A173" s="4">
         <v>172</v>
       </c>
-      <c r="B173" s="23" t="s">
+      <c r="B173" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C173" s="21"/>
+      <c r="C173" s="30"/>
       <c r="D173" t="s">
         <v>277</v>
       </c>
@@ -7009,10 +7065,10 @@
       <c r="A174" s="4">
         <v>173</v>
       </c>
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="33" t="s">
         <v>279</v>
       </c>
       <c r="D174" t="s">
@@ -7026,10 +7082,10 @@
       <c r="A175" s="4">
         <v>174</v>
       </c>
-      <c r="B175" s="23" t="s">
+      <c r="B175" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C175" s="21"/>
+      <c r="C175" s="30"/>
       <c r="D175" t="s">
         <v>281</v>
       </c>
@@ -7041,10 +7097,10 @@
       <c r="A176" s="4">
         <v>175</v>
       </c>
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C176" s="21"/>
+      <c r="C176" s="30"/>
       <c r="D176" t="s">
         <v>282</v>
       </c>
@@ -7056,10 +7112,10 @@
       <c r="A177" s="4">
         <v>176</v>
       </c>
-      <c r="B177" s="23" t="s">
+      <c r="B177" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="C177" s="21"/>
+      <c r="C177" s="30"/>
       <c r="E177" t="s">
         <v>236</v>
       </c>
@@ -7068,10 +7124,10 @@
       <c r="A178" s="4">
         <v>177</v>
       </c>
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="C178" s="24" t="s">
+      <c r="C178" s="33" t="s">
         <v>284</v>
       </c>
     </row>
@@ -7079,10 +7135,10 @@
       <c r="A179" s="4">
         <v>178</v>
       </c>
-      <c r="B179" s="24" t="s">
+      <c r="B179" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C179" s="24" t="s">
+      <c r="C179" s="33" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7090,10 +7146,10 @@
       <c r="A180" s="4">
         <v>179</v>
       </c>
-      <c r="B180" s="24" t="s">
+      <c r="B180" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="C180" s="24" t="s">
+      <c r="C180" s="33" t="s">
         <v>288</v>
       </c>
     </row>
@@ -7101,10 +7157,10 @@
       <c r="A181" s="4">
         <v>180</v>
       </c>
-      <c r="B181" s="24" t="s">
+      <c r="B181" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C181" s="24" t="s">
+      <c r="C181" s="33" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7112,10 +7168,10 @@
       <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="C182" s="33" t="s">
         <v>291</v>
       </c>
     </row>
@@ -7123,10 +7179,10 @@
       <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" s="24" t="s">
+      <c r="B183" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="C183" s="24" t="s">
+      <c r="C183" s="33" t="s">
         <v>293</v>
       </c>
     </row>
@@ -7134,10 +7190,10 @@
       <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" s="25" t="s">
+      <c r="B184" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="C184" s="25" t="s">
+      <c r="C184" s="34" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7145,10 +7201,10 @@
       <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" s="25" t="s">
+      <c r="B185" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C185" s="25" t="s">
+      <c r="C185" s="34" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7156,10 +7212,10 @@
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="25" t="s">
+      <c r="B186" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C186" s="25" t="s">
+      <c r="C186" s="34" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7167,7 +7223,7 @@
       <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" s="23" t="s">
+      <c r="B187" s="32" t="s">
         <v>123</v>
       </c>
       <c r="D187" t="s">
@@ -7181,7 +7237,7 @@
       <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" s="23" t="s">
+      <c r="B188" s="32" t="s">
         <v>207</v>
       </c>
       <c r="D188" t="s">
@@ -7195,10 +7251,10 @@
       <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" s="25" t="s">
+      <c r="B189" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="C189" s="25" t="s">
+      <c r="C189" s="34" t="s">
         <v>299</v>
       </c>
       <c r="D189" t="s">
@@ -7212,13 +7268,13 @@
       <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" s="25" t="s">
+      <c r="B190" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="C190" s="25" t="s">
+      <c r="C190" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="D190" s="19" t="s">
+      <c r="D190" s="28" t="s">
         <v>302</v>
       </c>
       <c r="E190" t="s">
@@ -7229,10 +7285,10 @@
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="23" t="s">
+      <c r="B191" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C191" s="25" t="s">
+      <c r="C191" s="34" t="s">
         <v>299</v>
       </c>
       <c r="D191" t="s">
@@ -7243,10 +7299,10 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="27">
+      <c r="A192" s="36">
         <v>191</v>
       </c>
-      <c r="B192" s="23" t="s">
+      <c r="B192" s="32" t="s">
         <v>259</v>
       </c>
       <c r="D192" t="s">
@@ -7260,10 +7316,10 @@
       <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" s="24" t="s">
+      <c r="B193" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="C193" s="24" t="s">
+      <c r="C193" s="32" t="s">
         <v>306</v>
       </c>
       <c r="D193" t="s">
@@ -7277,10 +7333,10 @@
       <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="24" t="s">
+      <c r="B194" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C194" s="24" t="s">
+      <c r="C194" s="33" t="s">
         <v>308</v>
       </c>
       <c r="D194" t="s">
@@ -7294,10 +7350,10 @@
       <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" s="25" t="s">
+      <c r="B195" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C195" s="25" t="s">
+      <c r="C195" s="34" t="s">
         <v>130</v>
       </c>
       <c r="D195" t="s">
@@ -7311,10 +7367,10 @@
       <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="23" t="s">
+      <c r="B196" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="C196" s="25" t="s">
+      <c r="C196" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D196" t="s">
@@ -7328,7 +7384,7 @@
       <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" s="23" t="s">
+      <c r="B197" s="9" t="s">
         <v>311</v>
       </c>
       <c r="D197" t="s">
@@ -7342,7 +7398,7 @@
       <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="23" t="s">
+      <c r="B198" s="9" t="s">
         <v>311</v>
       </c>
       <c r="D198" t="s">
@@ -7356,7 +7412,7 @@
       <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" s="23" t="s">
+      <c r="B199" s="19" t="s">
         <v>315</v>
       </c>
       <c r="D199" t="s">
@@ -7370,10 +7426,10 @@
       <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" s="24" t="s">
+      <c r="B200" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="C200" s="24" t="s">
+      <c r="C200" s="33" t="s">
         <v>317</v>
       </c>
     </row>

--- a/相关/测试记录/20180820.xlsx
+++ b/相关/测试记录/20180820.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317">
   <si>
     <t>序号</t>
   </si>
@@ -859,9 +859,6 @@
   </si>
   <si>
     <t>【包裹状态】点击筛选改为下拉框筛选 因为点击筛选的话就重复了  我后面截的图片 就应该是点击全部后的页面只需要把 点击筛选改为下拉框筛选</t>
-  </si>
-  <si>
-    <t>包裹-全部</t>
   </si>
   <si>
     <t>见180，181</t>
@@ -964,7 +961,7 @@
     <t xml:space="preserve">这两个数字不应该显示在全部的筛选栏里     需对应到 已到库  未到库    </t>
   </si>
   <si>
-    <t>运单-来源为转运的运单</t>
+    <t>运单-来源为转运的运单√</t>
   </si>
   <si>
     <t>缺少合成此运单包裹内容的接口</t>
@@ -1024,7 +1021,7 @@
     <t>运单状态需要中文返回值</t>
   </si>
   <si>
-    <t>全部包裹列表</t>
+    <t>全部包裹列表√</t>
   </si>
   <si>
     <t>对应165，接口应返回包裹预报时间</t>
@@ -1116,8 +1113,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1209,6 +1206,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1224,72 +1228,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1310,7 +1253,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1324,9 +1322,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1389,6 +1386,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1401,13 +1422,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,19 +1494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,25 +1530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,7 +1548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,78 +1561,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1586,6 +1583,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1597,15 +1618,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1626,25 +1638,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1660,17 +1663,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1682,10 +1679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1694,133 +1691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4074,11 +4071,11 @@
   <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C170" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6934,13 +6931,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C166" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="C166" s="34" t="s">
+      <c r="D166" s="35" t="s">
         <v>262</v>
-      </c>
-      <c r="D166" s="35" t="s">
-        <v>263</v>
       </c>
       <c r="E166" t="s">
         <v>236</v>
@@ -6955,7 +6952,7 @@
       </c>
       <c r="C167" s="30"/>
       <c r="D167" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E167" t="s">
         <v>236</v>
@@ -6966,7 +6963,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C168" s="33" t="s">
         <v>239</v>
@@ -6983,13 +6980,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C169" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="C169" s="33" t="s">
+      <c r="D169" s="32" t="s">
         <v>267</v>
-      </c>
-      <c r="D169" s="32" t="s">
-        <v>268</v>
       </c>
       <c r="E169" t="s">
         <v>236</v>
@@ -7000,13 +6997,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C170" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C170" s="33" t="s">
+      <c r="D170" s="28" t="s">
         <v>270</v>
-      </c>
-      <c r="D170" s="28" t="s">
-        <v>271</v>
       </c>
       <c r="E170" t="s">
         <v>236</v>
@@ -7020,10 +7017,10 @@
         <v>187</v>
       </c>
       <c r="C171" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D171" t="s">
         <v>272</v>
-      </c>
-      <c r="D171" t="s">
-        <v>273</v>
       </c>
       <c r="E171" t="s">
         <v>236</v>
@@ -7034,13 +7031,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C172" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="C172" s="32" t="s">
+      <c r="D172" t="s">
         <v>275</v>
-      </c>
-      <c r="D172" t="s">
-        <v>276</v>
       </c>
       <c r="E172" t="s">
         <v>236</v>
@@ -7055,7 +7052,7 @@
       </c>
       <c r="C173" s="30"/>
       <c r="D173" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E173" t="s">
         <v>236</v>
@@ -7066,13 +7063,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C174" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C174" s="33" t="s">
+      <c r="D174" t="s">
         <v>279</v>
-      </c>
-      <c r="D174" t="s">
-        <v>280</v>
       </c>
       <c r="E174" t="s">
         <v>236</v>
@@ -7087,7 +7084,7 @@
       </c>
       <c r="C175" s="30"/>
       <c r="D175" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E175" t="s">
         <v>236</v>
@@ -7098,11 +7095,11 @@
         <v>175</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C176" s="30"/>
       <c r="D176" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E176" t="s">
         <v>236</v>
@@ -7125,10 +7122,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C178" s="33" t="s">
         <v>283</v>
-      </c>
-      <c r="C178" s="33" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -7136,10 +7133,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C179" s="33" t="s">
         <v>285</v>
-      </c>
-      <c r="C179" s="33" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -7147,10 +7144,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C180" s="33" t="s">
         <v>287</v>
-      </c>
-      <c r="C180" s="33" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -7158,10 +7155,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C181" s="33" t="s">
         <v>289</v>
-      </c>
-      <c r="C181" s="33" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -7169,10 +7166,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -7180,10 +7177,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C183" s="33" t="s">
         <v>292</v>
-      </c>
-      <c r="C183" s="33" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -7191,7 +7188,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C184" s="34" t="s">
         <v>61</v>
@@ -7202,7 +7199,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C185" s="34" t="s">
         <v>61</v>
@@ -7227,10 +7224,10 @@
         <v>123</v>
       </c>
       <c r="D187" t="s">
+        <v>295</v>
+      </c>
+      <c r="E187" t="s">
         <v>296</v>
-      </c>
-      <c r="E187" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -7241,10 +7238,10 @@
         <v>207</v>
       </c>
       <c r="D188" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E188" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -7255,13 +7252,13 @@
         <v>258</v>
       </c>
       <c r="C189" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="D189" t="s">
         <v>299</v>
       </c>
-      <c r="D189" t="s">
-        <v>300</v>
-      </c>
       <c r="E189" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="190" ht="54" spans="1:5">
@@ -7269,16 +7266,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C190" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="D190" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="C190" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D190" s="28" t="s">
-        <v>302</v>
-      </c>
       <c r="E190" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -7289,13 +7286,13 @@
         <v>181</v>
       </c>
       <c r="C191" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D191" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E191" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -7306,10 +7303,10 @@
         <v>259</v>
       </c>
       <c r="D192" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E192" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -7317,16 +7314,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C193" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="C193" s="32" t="s">
+      <c r="D193" t="s">
         <v>306</v>
       </c>
-      <c r="D193" t="s">
-        <v>307</v>
-      </c>
       <c r="E193" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -7334,16 +7331,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C194" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D194" t="s">
         <v>308</v>
       </c>
-      <c r="D194" t="s">
-        <v>309</v>
-      </c>
       <c r="E194" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -7357,10 +7354,10 @@
         <v>130</v>
       </c>
       <c r="D195" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E195" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -7368,16 +7365,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C196" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D196" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E196" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -7385,13 +7382,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D197" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E197" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -7399,13 +7396,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D198" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E198" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -7413,13 +7410,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D199" t="s">
         <v>315</v>
       </c>
-      <c r="D199" t="s">
-        <v>316</v>
-      </c>
       <c r="E199" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -7430,7 +7427,7 @@
         <v>219</v>
       </c>
       <c r="C200" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/相关/测试记录/20180820.xlsx
+++ b/相关/测试记录/20180820.xlsx
@@ -1030,7 +1030,7 @@
     <t>对应165，接口应返回可查询运单详情的id字段</t>
   </si>
   <si>
-    <t>运单导出excel接口</t>
+    <t>运单导出excel接口√</t>
   </si>
   <si>
     <t>文档中未写明传入参数</t>
@@ -4071,11 +4071,11 @@
   <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C171" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B180" sqref="B180"/>
+      <selection pane="bottomRight" activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
